--- a/Units/m5camera/CameraPinComparison.xlsx
+++ b/Units/m5camera/CameraPinComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Units\m5camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB6BCE8-8CBE-495F-B933-FF1957551693}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909DBEA-89D3-4591-9AC0-550B9F424609}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="3315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B466AA3B-E5C4-4B57-BAE9-8BB55229794D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{B466AA3B-E5C4-4B57-BAE9-8BB55229794D}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -157,14 +157,6 @@
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPM1423-SCL Pin -&gt; IO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPM1423-SDA Pin -&gt; IO4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,6 +470,14 @@
       </rPr>
       <t>ESP32CAM 板子上的麦克风型号与其他摄像头板子都不一样。在 ESP32CAM 的麦克风型号是 SPQ2410，而其他板子上的是 SPM1423。</t>
     </r>
+  </si>
+  <si>
+    <t>SPM1423-SCL Pin -&gt; IO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPM1423-SDA Pin -&gt; IO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -915,15 +915,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>248892</xdr:colOff>
+      <xdr:colOff>573863</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>6163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1658593</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1438275</xdr:rowOff>
+      <xdr:colOff>1288676</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -952,8 +952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3495675" y="260487"/>
-          <a:ext cx="1409701" cy="1409701"/>
+          <a:off x="3823569" y="230281"/>
+          <a:ext cx="714813" cy="714813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,15 +965,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171036</xdr:colOff>
+      <xdr:colOff>585653</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4555</xdr:rowOff>
+      <xdr:rowOff>49379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1599786</xdr:colOff>
+      <xdr:colOff>1210235</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1434548</xdr:rowOff>
+      <xdr:rowOff>674504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,8 +1002,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5364232" y="236468"/>
-          <a:ext cx="1428750" cy="1429993"/>
+          <a:off x="5773977" y="273497"/>
+          <a:ext cx="624582" cy="625125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,15 +1015,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>455958</xdr:colOff>
+      <xdr:colOff>220634</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12838</xdr:rowOff>
+      <xdr:rowOff>46457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1884529</xdr:colOff>
+      <xdr:colOff>795617</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1442652</xdr:rowOff>
+      <xdr:rowOff>621940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1039,7 +1039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1052,8 +1052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9980958" y="241438"/>
-          <a:ext cx="1428571" cy="1429814"/>
+          <a:off x="9745634" y="270575"/>
+          <a:ext cx="574983" cy="575483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,15 +1065,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>1074086</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>20732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1736914</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1438275</xdr:rowOff>
+      <xdr:rowOff>683560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1102,8 +1102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="238125"/>
-          <a:ext cx="1428750" cy="1428750"/>
+          <a:off x="8088968" y="244850"/>
+          <a:ext cx="662828" cy="662828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,15 +1115,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1475134</xdr:colOff>
+      <xdr:colOff>1878547</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>11597</xdr:rowOff>
+      <xdr:rowOff>45216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>379759</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2496145</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1422524</xdr:rowOff>
+      <xdr:rowOff>661148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,7 +1139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1152,8 +1152,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8495059" y="240197"/>
-          <a:ext cx="1409700" cy="1410927"/>
+          <a:off x="8893429" y="269334"/>
+          <a:ext cx="617598" cy="615932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,15 +1170,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>296517</xdr:colOff>
+      <xdr:colOff>621488</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>70036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:colOff>1423146</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1419225</xdr:rowOff>
+      <xdr:rowOff>994511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1207,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3544542" y="276224"/>
-          <a:ext cx="1189383" cy="1371601"/>
+          <a:off x="3871194" y="294154"/>
+          <a:ext cx="801658" cy="924475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,15 +1220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171036</xdr:colOff>
+      <xdr:colOff>451183</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
+      <xdr:rowOff>7357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1599786</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1434352</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>966185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1257,8 +1257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5362161" y="280781"/>
-          <a:ext cx="1428750" cy="1395620"/>
+          <a:off x="5639507" y="231475"/>
+          <a:ext cx="983169" cy="958828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,15 +1270,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>455958</xdr:colOff>
+      <xdr:colOff>511988</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12839</xdr:rowOff>
+      <xdr:rowOff>46458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1884529</xdr:colOff>
+      <xdr:colOff>1445560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1428751</xdr:rowOff>
+      <xdr:rowOff>971758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1307,8 +1307,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9980958" y="241439"/>
-          <a:ext cx="1428571" cy="1415912"/>
+          <a:off x="10036988" y="270576"/>
+          <a:ext cx="933572" cy="925300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1320,15 +1320,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>536200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>76761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1467970</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1419226</xdr:rowOff>
+      <xdr:rowOff>996107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,8 +1357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="238126"/>
-          <a:ext cx="1428750" cy="1409700"/>
+          <a:off x="7551082" y="300879"/>
+          <a:ext cx="931770" cy="919346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,15 +1370,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1475134</xdr:colOff>
+      <xdr:colOff>1721664</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>11597</xdr:rowOff>
+      <xdr:rowOff>45215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>379759</xdr:colOff>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1419225</xdr:rowOff>
+      <xdr:rowOff>1019247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1407,8 +1407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8495059" y="240197"/>
-          <a:ext cx="1409700" cy="1407628"/>
+          <a:off x="8736546" y="269333"/>
+          <a:ext cx="978955" cy="974032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDDF864-8EB4-4289-864E-159C6439EB66}">
-  <dimension ref="A1:S418"/>
+  <dimension ref="A1:S398"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K13" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1760,12 +1760,12 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1785,12 +1785,12 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -1816,10 +1816,10 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -1845,10 +1845,10 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1874,10 +1874,10 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -1903,10 +1903,10 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -1932,10 +1932,10 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -1961,10 +1961,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -1990,10 +1990,10 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -2022,7 +2022,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -2051,7 +2051,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -2080,7 +2080,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -2109,7 +2109,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -2138,7 +2138,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -2167,7 +2167,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -2196,7 +2196,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
@@ -2225,7 +2225,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -2254,7 +2254,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -2343,7 +2343,7 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>30</v>
@@ -2398,7 +2398,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="3" t="s">
         <v>1</v>
@@ -2438,10 +2438,10 @@
         <v>34</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="1"/>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="1"/>
@@ -2609,17 +2609,17 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="1"/>
@@ -2638,22 +2638,22 @@
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -3081,11 +3081,6 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3100,12 +3095,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+    <row r="54" spans="2:19" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3120,12 +3110,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+    <row r="55" spans="2:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3140,12 +3125,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+    <row r="56" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3160,12 +3140,7 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+    <row r="57" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3180,12 +3155,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+    <row r="58" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3200,12 +3170,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+    <row r="59" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3220,12 +3185,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+    <row r="60" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3240,12 +3200,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+    <row r="61" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3260,12 +3215,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+    <row r="62" spans="2:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3280,12 +3230,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+    <row r="63" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3300,12 +3245,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+    <row r="64" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3321,11 +3261,6 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3341,11 +3276,6 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3360,12 +3290,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+    <row r="67" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3381,11 +3306,6 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3401,11 +3321,6 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3421,11 +3336,6 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3441,12 +3351,6 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3461,12 +3365,6 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3481,12 +3379,6 @@
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3506,7 +3398,6 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3526,7 +3417,6 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -9999,406 +9889,6 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-    </row>
-    <row r="399" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
-      <c r="D399" s="1"/>
-      <c r="E399" s="1"/>
-      <c r="F399" s="1"/>
-      <c r="G399" s="1"/>
-      <c r="H399" s="1"/>
-      <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
-      <c r="M399" s="1"/>
-      <c r="N399" s="1"/>
-      <c r="O399" s="1"/>
-      <c r="P399" s="1"/>
-      <c r="Q399" s="1"/>
-      <c r="R399" s="1"/>
-      <c r="S399" s="1"/>
-    </row>
-    <row r="400" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-      <c r="D400" s="1"/>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
-      <c r="M400" s="1"/>
-      <c r="N400" s="1"/>
-      <c r="O400" s="1"/>
-      <c r="P400" s="1"/>
-      <c r="Q400" s="1"/>
-      <c r="R400" s="1"/>
-      <c r="S400" s="1"/>
-    </row>
-    <row r="401" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
-      <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-      <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
-      <c r="M401" s="1"/>
-      <c r="N401" s="1"/>
-      <c r="O401" s="1"/>
-      <c r="P401" s="1"/>
-      <c r="Q401" s="1"/>
-      <c r="R401" s="1"/>
-      <c r="S401" s="1"/>
-    </row>
-    <row r="402" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
-      <c r="D402" s="1"/>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
-      <c r="M402" s="1"/>
-      <c r="N402" s="1"/>
-      <c r="O402" s="1"/>
-      <c r="P402" s="1"/>
-      <c r="Q402" s="1"/>
-      <c r="R402" s="1"/>
-      <c r="S402" s="1"/>
-    </row>
-    <row r="403" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
-      <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-      <c r="R403" s="1"/>
-      <c r="S403" s="1"/>
-    </row>
-    <row r="404" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-      <c r="D404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1"/>
-      <c r="M404" s="1"/>
-      <c r="N404" s="1"/>
-      <c r="O404" s="1"/>
-      <c r="P404" s="1"/>
-      <c r="Q404" s="1"/>
-      <c r="R404" s="1"/>
-      <c r="S404" s="1"/>
-    </row>
-    <row r="405" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
-      <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-      <c r="R405" s="1"/>
-      <c r="S405" s="1"/>
-    </row>
-    <row r="406" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="M406" s="1"/>
-      <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
-      <c r="P406" s="1"/>
-      <c r="Q406" s="1"/>
-      <c r="R406" s="1"/>
-      <c r="S406" s="1"/>
-    </row>
-    <row r="407" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
-      <c r="M407" s="1"/>
-      <c r="N407" s="1"/>
-      <c r="O407" s="1"/>
-      <c r="P407" s="1"/>
-      <c r="Q407" s="1"/>
-      <c r="R407" s="1"/>
-      <c r="S407" s="1"/>
-    </row>
-    <row r="408" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
-      <c r="H408" s="1"/>
-      <c r="I408" s="1"/>
-      <c r="J408" s="1"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
-      <c r="M408" s="1"/>
-      <c r="N408" s="1"/>
-      <c r="O408" s="1"/>
-      <c r="P408" s="1"/>
-      <c r="Q408" s="1"/>
-      <c r="R408" s="1"/>
-      <c r="S408" s="1"/>
-    </row>
-    <row r="409" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
-      <c r="M409" s="1"/>
-      <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
-      <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-      <c r="R409" s="1"/>
-      <c r="S409" s="1"/>
-    </row>
-    <row r="410" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
-      <c r="H410" s="1"/>
-      <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="1"/>
-      <c r="M410" s="1"/>
-      <c r="N410" s="1"/>
-      <c r="O410" s="1"/>
-      <c r="P410" s="1"/>
-      <c r="Q410" s="1"/>
-      <c r="R410" s="1"/>
-      <c r="S410" s="1"/>
-    </row>
-    <row r="411" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-      <c r="I411" s="1"/>
-      <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
-      <c r="M411" s="1"/>
-      <c r="N411" s="1"/>
-      <c r="O411" s="1"/>
-      <c r="P411" s="1"/>
-      <c r="Q411" s="1"/>
-      <c r="R411" s="1"/>
-      <c r="S411" s="1"/>
-    </row>
-    <row r="412" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1"/>
-      <c r="M412" s="1"/>
-      <c r="N412" s="1"/>
-      <c r="O412" s="1"/>
-      <c r="P412" s="1"/>
-      <c r="Q412" s="1"/>
-      <c r="R412" s="1"/>
-      <c r="S412" s="1"/>
-    </row>
-    <row r="413" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1"/>
-      <c r="N413" s="1"/>
-      <c r="O413" s="1"/>
-      <c r="P413" s="1"/>
-      <c r="Q413" s="1"/>
-      <c r="R413" s="1"/>
-      <c r="S413" s="1"/>
-    </row>
-    <row r="414" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1"/>
-      <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
-      <c r="P414" s="1"/>
-      <c r="Q414" s="1"/>
-      <c r="R414" s="1"/>
-      <c r="S414" s="1"/>
-    </row>
-    <row r="415" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-      <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1"/>
-      <c r="M415" s="1"/>
-      <c r="N415" s="1"/>
-      <c r="O415" s="1"/>
-      <c r="P415" s="1"/>
-      <c r="Q415" s="1"/>
-      <c r="R415" s="1"/>
-      <c r="S415" s="1"/>
-    </row>
-    <row r="416" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1"/>
-      <c r="N416" s="1"/>
-      <c r="O416" s="1"/>
-      <c r="P416" s="1"/>
-      <c r="Q416" s="1"/>
-      <c r="R416" s="1"/>
-      <c r="S416" s="1"/>
-    </row>
-    <row r="417" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
-      <c r="S417" s="1"/>
-    </row>
-    <row r="418" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1"/>
-      <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
-      <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-      <c r="R418" s="1"/>
-      <c r="S418" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -10456,10 +9946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5131EA-61F9-4572-954E-05945D008233}">
-  <dimension ref="A1:S418"/>
+  <dimension ref="A1:S398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10499,12 +9989,12 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10526,10 +10016,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -10558,7 +10048,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -10587,7 +10077,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -10616,7 +10106,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -10645,7 +10135,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -10674,7 +10164,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -10703,7 +10193,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -10732,7 +10222,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -10761,7 +10251,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -10790,7 +10280,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -10819,7 +10309,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -10848,7 +10338,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -10877,7 +10367,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -10906,7 +10396,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -10935,7 +10425,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
@@ -10964,10 +10454,10 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>20</v>
@@ -10993,7 +10483,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
@@ -11022,7 +10512,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -11050,7 +10540,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -11079,10 +10569,10 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>30</v>
@@ -11108,7 +10598,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
         <v>27</v>
@@ -11137,7 +10627,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="3" t="s">
         <v>1</v>
@@ -11177,10 +10667,10 @@
         <v>34</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="1"/>
@@ -11199,7 +10689,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -11259,7 +10749,7 @@
     </row>
     <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -11319,19 +10809,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="1"/>
@@ -11355,10 +10845,10 @@
         <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="1"/>
@@ -11377,22 +10867,22 @@
     </row>
     <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -11452,7 +10942,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -11739,7 +11229,8 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -11759,7 +11250,8 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -11779,7 +11271,8 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -11799,7 +11292,8 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -11819,7 +11313,8 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -11839,7 +11334,8 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -11859,7 +11355,8 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -11879,7 +11376,8 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -11899,7 +11397,8 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -11919,7 +11418,8 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -11939,7 +11439,8 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -11959,7 +11460,8 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -11979,7 +11481,8 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -11999,7 +11502,8 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -12019,7 +11523,8 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -12039,7 +11544,8 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -12059,7 +11565,8 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -12079,7 +11586,8 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -12099,7 +11607,8 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -12119,7 +11628,8 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -12139,7 +11649,8 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -12159,7 +11670,8 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -12179,7 +11691,8 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -12199,7 +11712,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -12219,7 +11732,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -12239,7 +11752,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -12259,7 +11772,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -12279,7 +11792,7 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -12299,7 +11812,7 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -12319,7 +11832,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -12339,7 +11852,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -12359,7 +11872,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -18738,406 +18251,6 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-    </row>
-    <row r="399" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
-      <c r="D399" s="1"/>
-      <c r="E399" s="1"/>
-      <c r="F399" s="1"/>
-      <c r="G399" s="1"/>
-      <c r="H399" s="1"/>
-      <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
-      <c r="M399" s="1"/>
-      <c r="N399" s="1"/>
-      <c r="O399" s="1"/>
-      <c r="P399" s="1"/>
-      <c r="Q399" s="1"/>
-      <c r="R399" s="1"/>
-      <c r="S399" s="1"/>
-    </row>
-    <row r="400" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-      <c r="D400" s="1"/>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
-      <c r="M400" s="1"/>
-      <c r="N400" s="1"/>
-      <c r="O400" s="1"/>
-      <c r="P400" s="1"/>
-      <c r="Q400" s="1"/>
-      <c r="R400" s="1"/>
-      <c r="S400" s="1"/>
-    </row>
-    <row r="401" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
-      <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-      <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
-      <c r="M401" s="1"/>
-      <c r="N401" s="1"/>
-      <c r="O401" s="1"/>
-      <c r="P401" s="1"/>
-      <c r="Q401" s="1"/>
-      <c r="R401" s="1"/>
-      <c r="S401" s="1"/>
-    </row>
-    <row r="402" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
-      <c r="D402" s="1"/>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
-      <c r="M402" s="1"/>
-      <c r="N402" s="1"/>
-      <c r="O402" s="1"/>
-      <c r="P402" s="1"/>
-      <c r="Q402" s="1"/>
-      <c r="R402" s="1"/>
-      <c r="S402" s="1"/>
-    </row>
-    <row r="403" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
-      <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-      <c r="R403" s="1"/>
-      <c r="S403" s="1"/>
-    </row>
-    <row r="404" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-      <c r="D404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1"/>
-      <c r="M404" s="1"/>
-      <c r="N404" s="1"/>
-      <c r="O404" s="1"/>
-      <c r="P404" s="1"/>
-      <c r="Q404" s="1"/>
-      <c r="R404" s="1"/>
-      <c r="S404" s="1"/>
-    </row>
-    <row r="405" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
-      <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-      <c r="R405" s="1"/>
-      <c r="S405" s="1"/>
-    </row>
-    <row r="406" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="M406" s="1"/>
-      <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
-      <c r="P406" s="1"/>
-      <c r="Q406" s="1"/>
-      <c r="R406" s="1"/>
-      <c r="S406" s="1"/>
-    </row>
-    <row r="407" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
-      <c r="M407" s="1"/>
-      <c r="N407" s="1"/>
-      <c r="O407" s="1"/>
-      <c r="P407" s="1"/>
-      <c r="Q407" s="1"/>
-      <c r="R407" s="1"/>
-      <c r="S407" s="1"/>
-    </row>
-    <row r="408" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
-      <c r="H408" s="1"/>
-      <c r="I408" s="1"/>
-      <c r="J408" s="1"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
-      <c r="M408" s="1"/>
-      <c r="N408" s="1"/>
-      <c r="O408" s="1"/>
-      <c r="P408" s="1"/>
-      <c r="Q408" s="1"/>
-      <c r="R408" s="1"/>
-      <c r="S408" s="1"/>
-    </row>
-    <row r="409" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
-      <c r="M409" s="1"/>
-      <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
-      <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-      <c r="R409" s="1"/>
-      <c r="S409" s="1"/>
-    </row>
-    <row r="410" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
-      <c r="H410" s="1"/>
-      <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="1"/>
-      <c r="M410" s="1"/>
-      <c r="N410" s="1"/>
-      <c r="O410" s="1"/>
-      <c r="P410" s="1"/>
-      <c r="Q410" s="1"/>
-      <c r="R410" s="1"/>
-      <c r="S410" s="1"/>
-    </row>
-    <row r="411" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-      <c r="I411" s="1"/>
-      <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
-      <c r="M411" s="1"/>
-      <c r="N411" s="1"/>
-      <c r="O411" s="1"/>
-      <c r="P411" s="1"/>
-      <c r="Q411" s="1"/>
-      <c r="R411" s="1"/>
-      <c r="S411" s="1"/>
-    </row>
-    <row r="412" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1"/>
-      <c r="M412" s="1"/>
-      <c r="N412" s="1"/>
-      <c r="O412" s="1"/>
-      <c r="P412" s="1"/>
-      <c r="Q412" s="1"/>
-      <c r="R412" s="1"/>
-      <c r="S412" s="1"/>
-    </row>
-    <row r="413" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1"/>
-      <c r="N413" s="1"/>
-      <c r="O413" s="1"/>
-      <c r="P413" s="1"/>
-      <c r="Q413" s="1"/>
-      <c r="R413" s="1"/>
-      <c r="S413" s="1"/>
-    </row>
-    <row r="414" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1"/>
-      <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
-      <c r="P414" s="1"/>
-      <c r="Q414" s="1"/>
-      <c r="R414" s="1"/>
-      <c r="S414" s="1"/>
-    </row>
-    <row r="415" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-      <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1"/>
-      <c r="M415" s="1"/>
-      <c r="N415" s="1"/>
-      <c r="O415" s="1"/>
-      <c r="P415" s="1"/>
-      <c r="Q415" s="1"/>
-      <c r="R415" s="1"/>
-      <c r="S415" s="1"/>
-    </row>
-    <row r="416" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1"/>
-      <c r="N416" s="1"/>
-      <c r="O416" s="1"/>
-      <c r="P416" s="1"/>
-      <c r="Q416" s="1"/>
-      <c r="R416" s="1"/>
-      <c r="S416" s="1"/>
-    </row>
-    <row r="417" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
-      <c r="S417" s="1"/>
-    </row>
-    <row r="418" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1"/>
-      <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
-      <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-      <c r="R418" s="1"/>
-      <c r="S418" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -19188,6 +18301,7 @@
     <hyperlink ref="F32" r:id="rId4" xr:uid="{7B3ED0EB-1447-419C-AA3D-3184759ECAAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>